--- a/config_recomendador.xlsx
+++ b/config_recomendador.xlsx
@@ -19107,7 +19107,7 @@
         <v>39</v>
       </c>
       <c r="B2" s="13">
-        <v>10.0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="3">
